--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2136250.727722638</v>
+        <v>2198767.181203879</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5599444.001796892</v>
+        <v>5602351.525385161</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>287.0790000802538</v>
+        <v>12.33925333323494</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>220.2736181911104</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>428.2210218768698</v>
       </c>
       <c r="E5" t="n">
-        <v>325.174287998771</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.36331884418857</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>322.96392688766</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>73.62552491720905</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.6108351869153</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5395542426785</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953276</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,10 +1531,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516904</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1588,13 +1588,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>50.294241037333</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>90.97964783088969</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.1772265485038</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,13 +1825,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605597</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.0540666443845</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2002,22 +2002,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.5309907175802</v>
       </c>
       <c r="F19" t="n">
-        <v>120.1472970361162</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>122.639117079891</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2287,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>207.9431960523169</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,13 +2536,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>128.5829343862776</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>131.9969996527465</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.5168019860609</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617047</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3475,19 +3475,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738371</v>
       </c>
       <c r="X37" t="n">
-        <v>237.7893185997716</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225824</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056502</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6228498914024</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563538</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>54.66258501924889</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>166.162536832921</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>236.5068966114178</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,19 +4138,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>120.1472970361158</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361713</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1666.878792644083</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1632.776723867911</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1196.866939042355</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194552</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067591</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1720.949630384608</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1720.949630384608</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.204642120565</v>
+        <v>1708.485738128815</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1693.38367874853</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1689.137959088587</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>961.5628497245362</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1124.735981292096</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>952.1742697753206</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449042</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>132.2575058449042</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>550.4673876128653</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1009.951254793778</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1452.210057951423</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1871.879307177204</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2219.386201147546</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>2061.392429777271</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1789.366025363562</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1543.974270696975</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1316.554600011083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>790.269974958836</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.7503761804292</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>465.1886646636541</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>299.3106718651768</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1674.185399119637</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1277.130531135514</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1277.130531135514</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1277.130531135514</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2174.854186692635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>803.3416511546014</v>
+        <v>1041.328054693135</v>
       </c>
       <c r="C10" t="n">
-        <v>630.7799396378264</v>
+        <v>868.76634317636</v>
       </c>
       <c r="D10" t="n">
-        <v>464.9019468393491</v>
+        <v>702.8883503778827</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9019468393491</v>
+        <v>533.1303466286199</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>356.4232925903761</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>190.8320176162038</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X10" t="n">
-        <v>1138.201517537139</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.1602698735885</v>
+        <v>1233.146673412122</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
         <v>1649.322926419992</v>
@@ -5027,7 +5027,7 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.64297345017</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.036133543734</v>
+        <v>1012.231663489991</v>
       </c>
       <c r="C13" t="n">
-        <v>833.4744220269588</v>
+        <v>839.669951973216</v>
       </c>
       <c r="D13" t="n">
-        <v>667.5964292284815</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
         <v>667.5964292284815</v>
@@ -5221,7 +5221,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
         <v>2532.736396587283</v>
@@ -5230,19 +5230,19 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
         <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1670.6661776152</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.274422948613</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1197.854752262721</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397517</v>
@@ -5285,7 +5285,7 @@
         <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940405</v>
@@ -5303,13 +5303,13 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5321,7 +5321,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D16" t="n">
         <v>837.3544329777442</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y16" t="n">
-        <v>1225.468103503607</v>
+        <v>1201.734763213506</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103062036</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516754</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315499</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252392</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125431</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442447</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376274</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787307</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366618</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666272</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.5833484213711</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.5833484213711</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.5833484213711</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.5833484213711</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.5833484213711</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.5833484213711</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.1882266945667</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443555</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C19" t="n">
-        <v>614.0976530275807</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="D19" t="n">
-        <v>614.0976530275807</v>
+        <v>645.8766848899146</v>
       </c>
       <c r="E19" t="n">
-        <v>614.0976530275807</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905995</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.2713211591</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615822</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949234</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633426</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5789,10 +5789,10 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>624.4588635952865</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>454.7008598460238</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5935,25 +5935,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6540,22 +6540,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,31 +6941,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573036</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562606</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577833</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085205</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702768</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7123,22 +7123,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300483</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977915</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7333,16 +7333,16 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130894</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638993</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822417</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996862</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155157</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643646</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>299.4391971876285</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974384</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710022</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.95432558306</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900077</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833903</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244937</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824248</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123901</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305237</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305237</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305237</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305237</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305237</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305237</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037192</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271529</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138696</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.775810717151</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.342809970256</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.12807762758</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295529</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478952</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1598.671837653397</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1164.897092811692</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>737.0296632208996</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G44" t="n">
-        <v>335.6318318441635</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
         <v>96.73597668111518</v>
@@ -7664,10 +7664,10 @@
         <v>3359.694461898419</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
@@ -7676,22 +7676,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901472</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480783</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780436</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
         <v>1102.064021433509</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040994</v>
+        <v>870.3006880091988</v>
       </c>
       <c r="C46" t="n">
-        <v>612.2502812873244</v>
+        <v>697.7389764924237</v>
       </c>
       <c r="D46" t="n">
-        <v>490.8893751902377</v>
+        <v>531.8609836939465</v>
       </c>
       <c r="E46" t="n">
-        <v>490.8893751902377</v>
+        <v>362.1029799446837</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>185.39592590644</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>185.39592590644</v>
       </c>
       <c r="H46" t="n">
         <v>185.3959259064399</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2618.225091792383</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2372.345645370838</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2093.912644623943</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1806.957136494374</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1534.930732080665</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1289.538977414078</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230866</v>
+        <v>1062.119306728186</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,28 +8055,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>65.15639683148447</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>117.6925219988882</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8538,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069174995</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9887,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,7 +10598,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639489</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>769.1429509552408</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>268.0111327346214</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.9268490649756</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.1445778789303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.7232059832934</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>222.8531101735154</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177.9825081356742</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>56.52943299418988</v>
       </c>
       <c r="F19" t="n">
-        <v>54.79268646174512</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-9.35234026961497e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>52.3008664179703</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>61.36294431725444</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.71657238081418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.7232059832938</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.38363054573634</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>102.9863699957343</v>
       </c>
       <c r="X37" t="n">
-        <v>5.148518520150049</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.592177662725</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>89.61600311981354</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>49.73195639979949</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.4233680290249</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>267.5985112554899</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.7319563997981</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.0719158343767</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>63.43016517136617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467609.6056238008</v>
+        <v>467609.6056238007</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467609.6056238007</v>
+        <v>467609.6056238006</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474208.0319335127</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480744.839017339</v>
+        <v>467609.6056238006</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>442321.538909587</v>
+      </c>
+      <c r="C2" t="n">
         <v>442321.5389095869</v>
       </c>
-      <c r="C2" t="n">
-        <v>442321.538909587</v>
-      </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="E2" t="n">
+        <v>417057.215826633</v>
+      </c>
+      <c r="F2" t="n">
         <v>417057.2158266329</v>
       </c>
-      <c r="F2" t="n">
-        <v>417057.215826633</v>
-      </c>
       <c r="G2" t="n">
-        <v>422942.2987515113</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133157</v>
@@ -26335,7 +26335,7 @@
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="K2" t="n">
         <v>434657.5069133156</v>
@@ -26347,10 +26347,10 @@
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884375</v>
+        <v>417057.215826633</v>
       </c>
       <c r="P2" t="n">
         <v>417057.215826633</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>135599.3120662813</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
         <v>773.6821211687732</v>
@@ -26430,7 +26430,7 @@
         <v>773.6821211687732</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440675</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073079</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,7 +26482,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024203</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71537.35684289489</v>
+        <v>47033.37937864958</v>
       </c>
       <c r="C6" t="n">
-        <v>213728.6575026048</v>
+        <v>223414.5731921193</v>
       </c>
       <c r="D6" t="n">
-        <v>213728.6575026049</v>
+        <v>254604.6081295788</v>
       </c>
       <c r="E6" t="n">
-        <v>108409.1694057793</v>
+        <v>180952.5576629055</v>
       </c>
       <c r="F6" t="n">
-        <v>342764.1914278168</v>
+        <v>342687.6328730198</v>
       </c>
       <c r="G6" t="n">
-        <v>340905.1433800746</v>
+        <v>337181.183615193</v>
       </c>
       <c r="H6" t="n">
-        <v>343730.1809367773</v>
+        <v>356109.711577358</v>
       </c>
       <c r="I6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="J6" t="n">
-        <v>245118.4705717504</v>
+        <v>206718.115151683</v>
       </c>
       <c r="K6" t="n">
-        <v>356132.9359167405</v>
+        <v>331262.7747934244</v>
       </c>
       <c r="L6" t="n">
-        <v>356132.9359167406</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="M6" t="n">
-        <v>160531.7566336729</v>
+        <v>221119.7669643545</v>
       </c>
       <c r="N6" t="n">
-        <v>356132.9359167405</v>
+        <v>356109.7115773579</v>
       </c>
       <c r="O6" t="n">
-        <v>351662.7729216322</v>
+        <v>342687.6328730198</v>
       </c>
       <c r="P6" t="n">
-        <v>342764.1914278168</v>
+        <v>342687.6328730199</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>113.7278999628232</v>
+        <v>388.4676467098421</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>63.81233485716339</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>3.329665100430134</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>104.2627093945168</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.5371136876087</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>108.5867600896399</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>330.577737546134</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829727</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.53463879211748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,28 +34775,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>296.9562613211783</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>65.15639683148447</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>117.6925219988882</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069174995</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,13 +36054,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36595,28 +36595,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36759,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,7 +37318,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908073</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,7 +37707,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645583</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37783,10 +37783,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.4835830639489</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>769.1429509552408</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
